--- a/with logs for unschedule with saturday sunday/excel_schedules/room_181_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/room_181_genetic_schedule.xlsx
@@ -595,7 +595,21 @@
           <t>1:30 PM - 2:00 PM</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+    </row>
+    <row r="14" ht="50" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>2:00 PM - 2:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="50" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>2:30 PM - 3:00 PM</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>DS 401 - Data Structures
 3A
@@ -603,27 +617,13 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="50" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>2:00 PM - 2:30 PM</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n"/>
-    </row>
-    <row r="15" ht="50" customHeight="1">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>2:30 PM - 3:00 PM</t>
-        </is>
-      </c>
-    </row>
     <row r="16" ht="50" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
         <is>
           <t>3:00 PM - 3:30 PM</t>
         </is>
       </c>
+      <c r="E16" s="2" t="n"/>
     </row>
     <row r="17" ht="50" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -704,7 +704,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
